--- a/100runs/run031/NotionalETEOutput031.xlsx
+++ b/100runs/run031/NotionalETEOutput031.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_427.MISSILE_SOMERSAULT_427</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_411.MISSILE_HIGHWIND_411</t>
+    <t>MISSILE_HIGHWIND_430.MISSILE_HIGHWIND_430</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_43.MISSILE_HIGHWIND_43</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_HELLMASKER_130.MISSILE_HELLMASKER_130</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G2">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H2">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I2">
-        <v>-1824.354529754715</v>
+        <v>1114862.453597554</v>
       </c>
       <c r="J2">
-        <v>1528.592161196017</v>
+        <v>4843224.545728486</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984362.252512475</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G3">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H3">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I3">
-        <v>-1788.336913560472</v>
+        <v>1114892.067623135</v>
       </c>
       <c r="J3">
-        <v>1491.407942992914</v>
+        <v>4843175.894127482</v>
       </c>
       <c r="K3">
-        <v>307.1444081340711</v>
+        <v>3984666.04788924</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G4">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H4">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I4">
-        <v>-1751.432396703045</v>
+        <v>1114922.410866852</v>
       </c>
       <c r="J4">
-        <v>1454.22372478981</v>
+        <v>4843127.242526477</v>
       </c>
       <c r="K4">
-        <v>598.9731881791538</v>
+        <v>3984954.694635972</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G5">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H5">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I5">
-        <v>-1713.619140069537</v>
+        <v>1114953.50128503</v>
       </c>
       <c r="J5">
-        <v>1417.039506586707</v>
+        <v>4843078.590925473</v>
       </c>
       <c r="K5">
-        <v>875.4863401352504</v>
+        <v>3985228.192752671</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G6">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H6">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I6">
-        <v>-1674.874766778987</v>
+        <v>1114985.357276153</v>
       </c>
       <c r="J6">
-        <v>1379.855288383603</v>
+        <v>4843029.939324469</v>
       </c>
       <c r="K6">
-        <v>1136.683864002359</v>
+        <v>3985486.542239336</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G7">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H7">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I7">
-        <v>-1635.176348940326</v>
+        <v>1115017.997691751</v>
       </c>
       <c r="J7">
-        <v>1342.6710701805</v>
+        <v>4842981.287723466</v>
       </c>
       <c r="K7">
-        <v>1382.565759780482</v>
+        <v>3985729.743095968</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G8">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H8">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I8">
-        <v>-1594.500394084264</v>
+        <v>1115051.441847554</v>
       </c>
       <c r="J8">
-        <v>1305.486851977396</v>
+        <v>4842932.63612246</v>
       </c>
       <c r="K8">
-        <v>1613.132027469617</v>
+        <v>3985957.795322566</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G9">
-        <v>-56.04847177625128</v>
+        <v>4841121.102790435</v>
       </c>
       <c r="H9">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I9">
-        <v>-1552.822831261063</v>
+        <v>1115085.709534925</v>
       </c>
       <c r="J9">
-        <v>1268.302633774293</v>
+        <v>4842883.984521457</v>
       </c>
       <c r="K9">
-        <v>1828.382667069766</v>
+        <v>3986170.69891913</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>214.0429741043047</v>
+        <v>1116579.435469088</v>
       </c>
       <c r="G10">
-        <v>-46.79329142530516</v>
+        <v>4841137.615597842</v>
       </c>
       <c r="H10">
-        <v>853.8376539307047</v>
+        <v>3985226.153204122</v>
       </c>
       <c r="I10">
-        <v>-1510.118996795996</v>
+        <v>1115120.821032573</v>
       </c>
       <c r="J10">
-        <v>1231.118415571189</v>
+        <v>4842835.332920454</v>
       </c>
       <c r="K10">
-        <v>2028.317678580926</v>
+        <v>3986368.453885661</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.1223174002994</v>
+        <v>1116530.754864701</v>
       </c>
       <c r="G11">
-        <v>-37.53811107435904</v>
+        <v>4841154.128405248</v>
       </c>
       <c r="H11">
-        <v>1051.922244121397</v>
+        <v>3985425.407502143</v>
       </c>
       <c r="I11">
-        <v>-1466.363619694034</v>
+        <v>1115156.797118548</v>
       </c>
       <c r="J11">
-        <v>1193.934197368086</v>
+        <v>4842786.681319449</v>
       </c>
       <c r="K11">
-        <v>2212.9370620031</v>
+        <v>3986551.060222159</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.9713355463396</v>
+        <v>1116502.157451706</v>
       </c>
       <c r="G12">
-        <v>-28.28293072341294</v>
+        <v>4841170.641212655</v>
       </c>
       <c r="H12">
-        <v>1169.911556469509</v>
+        <v>3985544.093552296</v>
       </c>
       <c r="I12">
-        <v>-1421.530806685145</v>
+        <v>1115193.659082543</v>
       </c>
       <c r="J12">
-        <v>1156.749979164983</v>
+        <v>4842738.029718445</v>
       </c>
       <c r="K12">
-        <v>2382.240817336287</v>
+        <v>3986718.517928622</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.200370539599</v>
+        <v>1116484.104666612</v>
       </c>
       <c r="G13">
-        <v>-19.02775037246683</v>
+        <v>4841187.154020063</v>
       </c>
       <c r="H13">
-        <v>1254.230543411946</v>
+        <v>3985628.910450657</v>
       </c>
       <c r="I13">
-        <v>-1375.594026901343</v>
+        <v>1115231.428738489</v>
       </c>
       <c r="J13">
-        <v>1119.565760961879</v>
+        <v>4842689.378117441</v>
       </c>
       <c r="K13">
-        <v>2536.228944580487</v>
+        <v>3986870.827005052</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.8069716804801</v>
+        <v>1116471.514727568</v>
       </c>
       <c r="G14">
-        <v>-9.772570021520712</v>
+        <v>4841203.666827469</v>
       </c>
       <c r="H14">
-        <v>1319.889693370092</v>
+        <v>3985694.957323969</v>
       </c>
       <c r="I14">
-        <v>-1328.526096176428</v>
+        <v>1115270.128437464</v>
       </c>
       <c r="J14">
-        <v>1082.381542758776</v>
+        <v>4842640.726516437</v>
       </c>
       <c r="K14">
-        <v>2674.9014437357</v>
+        <v>3987007.987451449</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.56112499162751</v>
+        <v>1116462.122256015</v>
       </c>
       <c r="G15">
-        <v>-0.5173896705746068</v>
+        <v>4841220.179634877</v>
       </c>
       <c r="H15">
-        <v>1373.669630173718</v>
+        <v>3985749.054836276</v>
       </c>
       <c r="I15">
-        <v>-1280.299160959114</v>
+        <v>1115309.781080924</v>
       </c>
       <c r="J15">
-        <v>1045.197324555672</v>
+        <v>4842592.074915433</v>
       </c>
       <c r="K15">
-        <v>2798.258314801925</v>
+        <v>3987129.999267812</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.3321640251566</v>
+        <v>1116454.778654881</v>
       </c>
       <c r="G16">
-        <v>8.737790680371507</v>
+        <v>4841236.692442282</v>
       </c>
       <c r="H16">
-        <v>1419.217310901274</v>
+        <v>3985794.871480271</v>
       </c>
       <c r="I16">
-        <v>-1230.884681830041</v>
+        <v>1115350.41013425</v>
       </c>
       <c r="J16">
-        <v>1008.013106352569</v>
+        <v>4842543.423314429</v>
       </c>
       <c r="K16">
-        <v>2906.299557779164</v>
+        <v>3987236.862454142</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.48340824537438</v>
+        <v>1116448.837146858</v>
       </c>
       <c r="G17">
-        <v>17.99297103131762</v>
+        <v>4841253.20524969</v>
       </c>
       <c r="H17">
-        <v>1458.7216284635</v>
+        <v>3985834.609074483</v>
       </c>
       <c r="I17">
-        <v>-1180.253416612901</v>
+        <v>1115392.039640636</v>
       </c>
       <c r="J17">
-        <v>970.8288881494652</v>
+        <v>4842494.771713424</v>
       </c>
       <c r="K17">
-        <v>2999.025172667416</v>
+        <v>3987328.577010438</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.62685691972116</v>
+        <v>1116443.903578121</v>
       </c>
       <c r="G18">
-        <v>27.24815138226373</v>
+        <v>4841269.718057097</v>
       </c>
       <c r="H18">
-        <v>1493.600031772617</v>
+        <v>3985869.69343799</v>
       </c>
       <c r="I18">
-        <v>-1128.375403069699</v>
+        <v>1115434.694235318</v>
       </c>
       <c r="J18">
-        <v>933.6446699463618</v>
+        <v>4842446.120112421</v>
       </c>
       <c r="K18">
-        <v>3076.43515946668</v>
+        <v>3987405.1429367</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.51129508131488</v>
+        <v>1116439.722749821</v>
       </c>
       <c r="G19">
-        <v>36.50333173320985</v>
+        <v>4841286.230864503</v>
       </c>
       <c r="H19">
-        <v>1524.823221276267</v>
+        <v>3985901.101003317</v>
       </c>
       <c r="I19">
-        <v>-1075.219941169893</v>
+        <v>1115478.399160153</v>
       </c>
       <c r="J19">
-        <v>896.4604517432582</v>
+        <v>4842397.468511418</v>
       </c>
       <c r="K19">
-        <v>3138.529518176958</v>
+        <v>3987466.560232929</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.96614007324833</v>
+        <v>1116436.121374124</v>
       </c>
       <c r="G20">
-        <v>45.75851208415595</v>
+        <v>4841302.74367191</v>
       </c>
       <c r="H20">
-        <v>1553.085166722664</v>
+        <v>3985929.529838165</v>
       </c>
       <c r="I20">
-        <v>-1020.755574922932</v>
+        <v>1115523.180278554</v>
       </c>
       <c r="J20">
-        <v>859.2762335401549</v>
+        <v>4842348.816910412</v>
       </c>
       <c r="K20">
-        <v>3185.308248798248</v>
+        <v>3987512.828899125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.87103656689827</v>
+        <v>1116432.977187052</v>
       </c>
       <c r="G21">
-        <v>55.01369243510206</v>
+        <v>4841319.256479317</v>
       </c>
       <c r="H21">
-        <v>1578.899226878278</v>
+        <v>3985955.496332734</v>
       </c>
       <c r="I21">
-        <v>-964.9500737634387</v>
+        <v>1115569.064090797</v>
       </c>
       <c r="J21">
-        <v>822.0920153370513</v>
+        <v>4842300.165309409</v>
       </c>
       <c r="K21">
-        <v>3216.771351330551</v>
+        <v>3987543.948935287</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.13835270328745</v>
+        <v>1116430.201167038</v>
       </c>
       <c r="G22">
-        <v>64.26887278604818</v>
+        <v>4841335.769286724</v>
       </c>
       <c r="H22">
-        <v>1602.655850658984</v>
+        <v>3985979.393241576</v>
       </c>
       <c r="I22">
-        <v>-907.770413478012</v>
+        <v>1115616.077749705</v>
       </c>
       <c r="J22">
-        <v>784.907797133948</v>
+        <v>4842251.513708404</v>
       </c>
       <c r="K22">
-        <v>3232.918825773868</v>
+        <v>3987559.920341415</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.70258334796733</v>
+        <v>1116427.726770139</v>
       </c>
       <c r="G23">
-        <v>73.52405313699428</v>
+        <v>4841352.282094131</v>
       </c>
       <c r="H23">
-        <v>1624.658930186325</v>
+        <v>3986001.526251324</v>
       </c>
       <c r="I23">
-        <v>-849.1827566623795</v>
+        <v>1115664.249076711</v>
       </c>
       <c r="J23">
-        <v>747.7235789308444</v>
+        <v>4842202.862107401</v>
       </c>
       <c r="K23">
-        <v>3233.750672128197</v>
+        <v>3987560.743117509</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.51365990359535</v>
+        <v>1116425.503133746</v>
       </c>
       <c r="G24">
-        <v>82.77923348794042</v>
+        <v>4841368.794901538</v>
       </c>
       <c r="H24">
-        <v>1645.149634145625</v>
+        <v>3986022.137954785</v>
       </c>
       <c r="I24">
-        <v>-789.1524326973182</v>
+        <v>1115713.606578329</v>
       </c>
       <c r="J24">
-        <v>710.5393607277409</v>
+        <v>4842154.210506396</v>
       </c>
       <c r="K24">
-        <v>3219.266890393539</v>
+        <v>3987546.41726357</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.53257378821778</v>
+        <v>1116423.490630661</v>
       </c>
       <c r="G25">
-        <v>92.03441383888652</v>
+        <v>4841385.307708944</v>
       </c>
       <c r="H25">
-        <v>1664.322563703697</v>
+        <v>3986041.424102266</v>
       </c>
       <c r="I25">
-        <v>-727.6439172315022</v>
+        <v>1115764.179463015</v>
       </c>
       <c r="J25">
-        <v>673.3551425246376</v>
+        <v>4842105.558905392</v>
       </c>
       <c r="K25">
-        <v>3189.467480569894</v>
+        <v>3987516.942779598</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.72842496881039</v>
+        <v>1116421.657870825</v>
       </c>
       <c r="G26">
-        <v>101.2895941898326</v>
+        <v>4841401.820516352</v>
       </c>
       <c r="H26">
-        <v>1682.337019959891</v>
+        <v>3986059.544935553</v>
       </c>
       <c r="I26">
-        <v>-664.6208111591374</v>
+        <v>1115815.997658461</v>
       </c>
       <c r="J26">
-        <v>636.170924321534</v>
+        <v>4842056.907304388</v>
       </c>
       <c r="K26">
-        <v>3144.352442657262</v>
+        <v>3987472.319665592</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.07637835462275</v>
+        <v>1116419.9796253</v>
       </c>
       <c r="G27">
-        <v>110.5447745407787</v>
+        <v>4841418.333323758</v>
       </c>
       <c r="H27">
-        <v>1699.325057080156</v>
+        <v>3986076.633288604</v>
       </c>
       <c r="I27">
-        <v>-600.0458190799351</v>
+        <v>1115869.091829298</v>
       </c>
       <c r="J27">
-        <v>598.9867061184304</v>
+        <v>4842008.255703384</v>
       </c>
       <c r="K27">
-        <v>3083.921776655643</v>
+        <v>3987412.547921552</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.55621578794163</v>
+        <v>1116418.435355301</v>
       </c>
       <c r="G28">
-        <v>119.7999548917249</v>
+        <v>4841434.846131165</v>
       </c>
       <c r="H28">
-        <v>1715.397362327896</v>
+        <v>3986092.800502301</v>
       </c>
       <c r="I28">
-        <v>-533.8807272286862</v>
+        <v>1115923.493395246</v>
       </c>
       <c r="J28">
-        <v>561.8024879153271</v>
+        <v>4841959.60410238</v>
       </c>
       <c r="K28">
-        <v>3008.175482565037</v>
+        <v>3987337.627547479</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.15128896975925</v>
+        <v>1116417.00814851</v>
       </c>
       <c r="G29">
-        <v>129.055135242671</v>
+        <v>4841451.358938572</v>
       </c>
       <c r="H29">
-        <v>1730.647630786791</v>
+        <v>3986108.140825006</v>
       </c>
       <c r="I29">
-        <v>-466.0863808613678</v>
+        <v>1115979.234549707</v>
       </c>
       <c r="J29">
-        <v>524.6182697122235</v>
+        <v>4841910.952501376</v>
       </c>
       <c r="K29">
-        <v>2917.113560385444</v>
+        <v>3987247.558543373</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.84774850139198</v>
+        <v>1116415.683935901</v>
       </c>
       <c r="G30">
-        <v>138.310315593617</v>
+        <v>4841467.871745978</v>
       </c>
       <c r="H30">
-        <v>1745.155874774902</v>
+        <v>3986122.734741517</v>
       </c>
       <c r="I30">
-        <v>-396.6226610844094</v>
+        <v>1116036.348278815</v>
       </c>
       <c r="J30">
-        <v>487.4340515091201</v>
+        <v>4841862.300900373</v>
       </c>
       <c r="K30">
-        <v>2810.736010116863</v>
+        <v>3987142.340909232</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.63396698172483</v>
+        <v>1116414.450905679</v>
       </c>
       <c r="G31">
-        <v>147.5654959445632</v>
+        <v>4841484.384553386</v>
       </c>
       <c r="H31">
-        <v>1758.990964847733</v>
+        <v>3986136.651529077</v>
       </c>
       <c r="I31">
-        <v>-325.448461113394</v>
+        <v>1116094.868380959</v>
       </c>
       <c r="J31">
-        <v>450.2498333060167</v>
+        <v>4841813.649299367</v>
       </c>
       <c r="K31">
-        <v>2689.042831759296</v>
+        <v>3987021.974645059</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.50010099290286</v>
+        <v>1116413.299058325</v>
       </c>
       <c r="G32">
-        <v>156.8206762955093</v>
+        <v>4841500.897360793</v>
       </c>
       <c r="H32">
-        <v>1772.212607022784</v>
+        <v>3986149.951246272</v>
       </c>
       <c r="I32">
-        <v>-252.5216619471558</v>
+        <v>1116154.829486781</v>
       </c>
       <c r="J32">
-        <v>413.0656151029132</v>
+        <v>4841764.997698364</v>
       </c>
       <c r="K32">
-        <v>2552.034025312742</v>
+        <v>3986886.459750851</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.4377541354345</v>
+        <v>1116412.219864286</v>
       </c>
       <c r="G33">
-        <v>166.0758566464554</v>
+        <v>4841517.410168199</v>
       </c>
       <c r="H33">
-        <v>1784.872899973626</v>
+        <v>3986162.686299424</v>
       </c>
       <c r="I33">
-        <v>-177.7991074428735</v>
+        <v>1116216.267079671</v>
       </c>
       <c r="J33">
-        <v>375.8813968998098</v>
+        <v>4841716.34609736</v>
       </c>
       <c r="K33">
-        <v>2399.7095907772</v>
+        <v>3986735.79622661</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.43971468432082</v>
+        <v>1116411.205997469</v>
       </c>
       <c r="G34">
-        <v>175.3310369974015</v>
+        <v>4841533.922975606</v>
       </c>
       <c r="H34">
-        <v>1797.017574918473</v>
+        <v>3986174.902689798</v>
       </c>
       <c r="I34">
-        <v>-101.2365787774128</v>
+        <v>1116279.217516764</v>
       </c>
       <c r="J34">
-        <v>338.6971786967063</v>
+        <v>4841667.694496356</v>
       </c>
       <c r="K34">
-        <v>2232.069528152672</v>
+        <v>3986569.984072336</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.49974910124185</v>
+        <v>1116410.251125482</v>
       </c>
       <c r="G35">
-        <v>184.5862173483476</v>
+        <v>4841550.435783013</v>
       </c>
       <c r="H35">
-        <v>1808.686992762435</v>
+        <v>3986186.641016634</v>
       </c>
       <c r="I35">
-        <v>-22.78876827980027</v>
+        <v>1116343.718050457</v>
       </c>
       <c r="J35">
-        <v>301.5129604936027</v>
+        <v>4841619.042895352</v>
       </c>
       <c r="K35">
-        <v>2049.113837439156</v>
+        <v>3986389.023288028</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.6124378775931</v>
+        <v>1116409.349742871</v>
       </c>
       <c r="G36">
-        <v>193.8413976992938</v>
+        <v>4841566.94859042</v>
       </c>
       <c r="H36">
-        <v>1819.916953381051</v>
+        <v>3986197.937291209</v>
       </c>
       <c r="I36">
-        <v>57.59074738065387</v>
+        <v>1116409.806850453</v>
       </c>
       <c r="J36">
-        <v>264.3287422904994</v>
+        <v>4841570.391294348</v>
       </c>
       <c r="K36">
-        <v>1850.842518636653</v>
+        <v>3986192.913873686</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.77304382492024</v>
+        <v>1116408.497037324</v>
       </c>
       <c r="G37">
-        <v>203.0965780502399</v>
+        <v>4841583.461397827</v>
       </c>
       <c r="H37">
-        <v>1830.73935797787</v>
+        <v>3986208.823603106</v>
       </c>
       <c r="I37">
-        <v>139.9495346664481</v>
+        <v>1116477.523026348</v>
       </c>
       <c r="J37">
-        <v>227.1445240873959</v>
+        <v>4841521.739693344</v>
       </c>
       <c r="K37">
-        <v>1637.255571745164</v>
+        <v>3985981.655829311</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.97740549864489</v>
+        <v>1116407.688781401</v>
       </c>
       <c r="G38">
-        <v>212.351758401186</v>
+        <v>4841599.974205233</v>
       </c>
       <c r="H38">
-        <v>1841.18275540711</v>
+        <v>3986219.328669763</v>
       </c>
       <c r="I38">
-        <v>224.3363313204608</v>
+        <v>1116546.906650777</v>
       </c>
       <c r="J38">
-        <v>189.9603058842925</v>
+        <v>4841473.08809234</v>
       </c>
       <c r="K38">
-        <v>1408.352996764688</v>
+        <v>3985755.249154903</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.22185027894474</v>
+        <v>1116406.921244241</v>
       </c>
       <c r="G39">
-        <v>221.6069387521321</v>
+        <v>4841616.487012641</v>
       </c>
       <c r="H39">
-        <v>1851.272796030942</v>
+        <v>3986229.47829301</v>
       </c>
       <c r="I39">
-        <v>310.8010752076483</v>
+        <v>1116617.998783125</v>
       </c>
       <c r="J39">
-        <v>152.776087681189</v>
+        <v>4841424.436491336</v>
       </c>
       <c r="K39">
-        <v>1164.134793695223</v>
+        <v>3985513.69385046</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.50312296430216</v>
+        <v>1116406.19111902</v>
       </c>
       <c r="G40">
-        <v>230.8621191030782</v>
+        <v>4841632.999820048</v>
       </c>
       <c r="H40">
-        <v>1861.032611277921</v>
+        <v>3986239.295740869</v>
       </c>
       <c r="I40">
-        <v>399.3949338669528</v>
+        <v>1116690.841493829</v>
       </c>
       <c r="J40">
-        <v>115.5918694780855</v>
+        <v>4841375.784890331</v>
       </c>
       <c r="K40">
-        <v>904.600962536772</v>
+        <v>3985256.989915985</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.81832670951886</v>
+        <v>1116405.495462953</v>
       </c>
       <c r="G41">
-        <v>240.1172994540243</v>
+        <v>4841649.512627454</v>
       </c>
       <c r="H41">
-        <v>1870.48313303675</v>
+        <v>3986248.802068833</v>
       </c>
       <c r="I41">
-        <v>490.1703347908858</v>
+        <v>1116765.477889271</v>
       </c>
       <c r="J41">
-        <v>78.4076512749821</v>
+        <v>4841327.133289328</v>
       </c>
       <c r="K41">
-        <v>629.7515032893346</v>
+        <v>3984985.137351475</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.1648738636521</v>
+        <v>1116404.831647354</v>
       </c>
       <c r="G42">
-        <v>249.3724798049704</v>
+        <v>4841666.025434861</v>
       </c>
       <c r="H42">
-        <v>1879.643363978795</v>
+        <v>3986258.016391786</v>
       </c>
       <c r="I42">
-        <v>583.1809964507351</v>
+        <v>1116841.952137285</v>
       </c>
       <c r="J42">
-        <v>41.22343307187857</v>
+        <v>4841278.481688323</v>
       </c>
       <c r="K42">
-        <v>339.586415952909</v>
+        <v>3984698.136156932</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.5404448052317</v>
+        <v>1116404.197315814</v>
       </c>
       <c r="G43">
-        <v>258.6276601559165</v>
+        <v>4841682.538242268</v>
       </c>
       <c r="H43">
-        <v>1888.530607587375</v>
+        <v>3986266.956115391</v>
       </c>
       <c r="I43">
-        <v>678.4819600857177</v>
+        <v>1116920.309493302</v>
       </c>
       <c r="J43">
-        <v>4.039214868775037</v>
+        <v>4841229.830087319</v>
       </c>
       <c r="K43">
-        <v>34.10570052749672</v>
+        <v>3984395.986332356</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.94295328182172</v>
+        <v>1116403.590348996</v>
       </c>
       <c r="G44">
-        <v>267.8828405068626</v>
+        <v>4841699.051049675</v>
       </c>
       <c r="H44">
-        <v>1897.160664892839</v>
+        <v>3986275.637133983</v>
       </c>
       <c r="I44">
-        <v>776.129622274932</v>
+        <v>1117000.596327124</v>
       </c>
       <c r="J44">
-        <v>-33.14500333432832</v>
+        <v>4841181.178486316</v>
       </c>
       <c r="K44">
-        <v>-286.6906429869018</v>
+        <v>3984078.687877746</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.37051707352065</v>
+        <v>1116403.008834833</v>
       </c>
       <c r="G45">
-        <v>277.1380208578087</v>
+        <v>4841715.563857081</v>
       </c>
       <c r="H45">
-        <v>1905.548003533859</v>
+        <v>3986284.074000634</v>
       </c>
       <c r="I45">
-        <v>876.1817683113543</v>
+        <v>1117082.860150365</v>
       </c>
       <c r="J45">
-        <v>-70.32922153743185</v>
+        <v>4841132.526885311</v>
       </c>
       <c r="K45">
-        <v>-622.8026145902882</v>
+        <v>3983746.240793102</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.82143304040135</v>
+        <v>1116402.451043174</v>
       </c>
       <c r="G46">
-        <v>286.3932012087549</v>
+        <v>4841732.076664488</v>
       </c>
       <c r="H46">
-        <v>1913.705903688698</v>
+        <v>3986292.280073944</v>
       </c>
       <c r="I46">
-        <v>978.6976063976376</v>
+        <v>1117167.149644573</v>
       </c>
       <c r="J46">
-        <v>-107.5134397405354</v>
+        <v>4841083.875284307</v>
       </c>
       <c r="K46">
-        <v>-974.2302142826626</v>
+        <v>3983398.645078425</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.29415580029354</v>
+        <v>1116401.915404131</v>
       </c>
       <c r="G47">
-        <v>295.648381559701</v>
+        <v>4841748.589471895</v>
       </c>
       <c r="H47">
-        <v>1921.646584572951</v>
+        <v>3986300.267645284</v>
       </c>
       <c r="I47">
-        <v>1083.737802683954</v>
+        <v>1117253.514690031</v>
       </c>
       <c r="J47">
-        <v>-144.6976579436389</v>
+        <v>4841035.223683303</v>
       </c>
       <c r="K47">
-        <v>-1340.973442064023</v>
+        <v>3983035.900733714</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.78727942890173</v>
+        <v>1116401.400489482</v>
       </c>
       <c r="G48">
-        <v>304.9035619106471</v>
+        <v>4841765.102279303</v>
       </c>
       <c r="H48">
-        <v>1929.381314528906</v>
+        <v>3986308.048049536</v>
       </c>
       <c r="I48">
-        <v>1191.364517168611</v>
+        <v>1117342.006395279</v>
       </c>
       <c r="J48">
-        <v>-181.8818761467421</v>
+        <v>4840986.572082299</v>
       </c>
       <c r="K48">
-        <v>-1723.032297934368</v>
+        <v>3982658.00775897</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.29952168877561</v>
+        <v>1116400.904996657</v>
       </c>
       <c r="G49">
-        <v>314.1587422615932</v>
+        <v>4841781.615086708</v>
       </c>
       <c r="H49">
-        <v>1936.920507196101</v>
+        <v>3986315.631761833</v>
       </c>
       <c r="I49">
-        <v>1301.641440482693</v>
+        <v>1117432.677127357</v>
       </c>
       <c r="J49">
-        <v>-219.0660943498456</v>
+        <v>4840937.920481295</v>
       </c>
       <c r="K49">
-        <v>-2120.406781893703</v>
+        <v>3982264.966154193</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.82971038432569</v>
+        <v>1116400.42773487</v>
       </c>
       <c r="G50">
-        <v>323.4139226125393</v>
+        <v>4841798.127894116</v>
       </c>
       <c r="H50">
-        <v>1944.273805822872</v>
+        <v>3986323.028482369</v>
       </c>
       <c r="I50">
-        <v>1414.633831580474</v>
+        <v>1117525.580542798</v>
       </c>
       <c r="J50">
-        <v>-256.2503125529491</v>
+        <v>4840889.268880291</v>
       </c>
       <c r="K50">
-        <v>-2533.096893942025</v>
+        <v>3981856.775919381</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.37677151232656</v>
+        <v>1116399.967613086</v>
       </c>
       <c r="G51">
-        <v>332.6691029634854</v>
+        <v>4841814.640701523</v>
       </c>
       <c r="H51">
-        <v>1951.450157431539</v>
+        <v>3986330.247210998</v>
       </c>
       <c r="I51">
-        <v>1530.408556357944</v>
+        <v>1117620.771619374</v>
       </c>
       <c r="J51">
-        <v>-293.4345307560527</v>
+        <v>4840840.617279286</v>
       </c>
       <c r="K51">
-        <v>-2961.102634079335</v>
+        <v>3981433.437054536</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.93971893525877</v>
+        <v>1116399.523629529</v>
       </c>
       <c r="G52">
-        <v>341.9242833144315</v>
+        <v>4841831.15350893</v>
       </c>
       <c r="H52">
-        <v>1958.457878268141</v>
+        <v>3986337.296313074</v>
       </c>
       <c r="I52">
-        <v>1649.034127222267</v>
+        <v>1117718.306688637</v>
       </c>
       <c r="J52">
-        <v>-330.6187489591562</v>
+        <v>4840791.965678283</v>
       </c>
       <c r="K52">
-        <v>-3404.42400230563</v>
+        <v>3980994.949559658</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.51764535151214</v>
+        <v>1116399.09486251</v>
       </c>
       <c r="G53">
-        <v>351.1794636653776</v>
+        <v>4841847.666316337</v>
       </c>
       <c r="H53">
-        <v>1965.304711737562</v>
+        <v>3986344.183577728</v>
       </c>
       <c r="I53">
-        <v>1770.580743635597</v>
+        <v>1117818.243469249</v>
       </c>
       <c r="J53">
-        <v>-367.8029671622594</v>
+        <v>4840743.31407728</v>
       </c>
       <c r="K53">
-        <v>-3863.060998620911</v>
+        <v>3980541.313434746</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.10971437429883</v>
+        <v>1116398.680462377</v>
       </c>
       <c r="G54">
-        <v>360.4346440163237</v>
+        <v>4841864.179123743</v>
       </c>
       <c r="H54">
-        <v>1971.997879836203</v>
+        <v>3986350.916269604</v>
       </c>
       <c r="I54">
-        <v>1895.12033365727</v>
+        <v>1117920.641101144</v>
       </c>
       <c r="J54">
-        <v>-404.9871853653629</v>
+        <v>4840694.662476274</v>
       </c>
       <c r="K54">
-        <v>-4337.013623025181</v>
+        <v>3980072.5286798</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,28 +2329,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G55">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H55">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I55">
-        <v>-1841.933346511097</v>
+        <v>1114863.13124868</v>
       </c>
       <c r="J55">
-        <v>1564.023227291001</v>
+        <v>4843225.157234511</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.155257101</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,28 +2364,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G56">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H56">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I56">
-        <v>-1805.568677666312</v>
+        <v>1114892.745292262</v>
       </c>
       <c r="J56">
-        <v>1525.977120268702</v>
+        <v>4843176.505627365</v>
       </c>
       <c r="K56">
-        <v>355.1063417864843</v>
+        <v>3984670.951007686</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,28 +2399,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G57">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H57">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I57">
-        <v>-1768.308562306106</v>
+        <v>1114923.088554423</v>
       </c>
       <c r="J57">
-        <v>1487.931013246403</v>
+        <v>4843127.854020217</v>
       </c>
       <c r="K57">
-        <v>692.5054536224598</v>
+        <v>3984959.598109597</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,28 +2434,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G58">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H58">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I58">
-        <v>-1730.130950883832</v>
+        <v>1114954.178991499</v>
       </c>
       <c r="J58">
-        <v>1449.884906224104</v>
+        <v>4843079.202413071</v>
       </c>
       <c r="K58">
-        <v>1012.197335507929</v>
+        <v>3985233.096562834</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,28 +2469,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G59">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H59">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I59">
-        <v>-1691.013250903043</v>
+        <v>1114986.035001985</v>
       </c>
       <c r="J59">
-        <v>1411.838799201806</v>
+        <v>4843030.550805924</v>
       </c>
       <c r="K59">
-        <v>1314.181987442889</v>
+        <v>3985491.446367397</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,28 +2504,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G60">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H60">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I60">
-        <v>-1650.932313547851</v>
+        <v>1115018.675437423</v>
       </c>
       <c r="J60">
-        <v>1373.792692179507</v>
+        <v>4842981.899198777</v>
       </c>
       <c r="K60">
-        <v>1598.459409427344</v>
+        <v>3985734.647523287</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,28 +2539,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G61">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H61">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I61">
-        <v>-1609.864419984074</v>
+        <v>1115052.119613554</v>
       </c>
       <c r="J61">
-        <v>1335.746585157208</v>
+        <v>4842933.24759163</v>
       </c>
       <c r="K61">
-        <v>1865.02960146129</v>
+        <v>3985962.700030502</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,28 +2574,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G62">
-        <v>-119.7995439771171</v>
+        <v>4841124.597841888</v>
       </c>
       <c r="H62">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I62">
-        <v>-1567.785267323058</v>
+        <v>1115086.387321755</v>
       </c>
       <c r="J62">
-        <v>1297.700478134909</v>
+        <v>4842884.595984483</v>
       </c>
       <c r="K62">
-        <v>2113.892563544729</v>
+        <v>3986175.603889044</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,28 +2609,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>158.1069372682068</v>
+        <v>1116581.770842607</v>
       </c>
       <c r="G63">
-        <v>-100.0172671311831</v>
+        <v>4841141.110661216</v>
       </c>
       <c r="H63">
-        <v>717.222709101643</v>
+        <v>3985233.57876745</v>
       </c>
       <c r="I63">
-        <v>-1524.669954239875</v>
+        <v>1115121.498840744</v>
       </c>
       <c r="J63">
-        <v>1259.65437111261</v>
+        <v>4842835.944377337</v>
       </c>
       <c r="K63">
-        <v>2345.04829567766</v>
+        <v>3986373.359098912</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,28 +2644,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>122.7094275155189</v>
+        <v>1116533.090136403</v>
       </c>
       <c r="G64">
-        <v>-80.23499028524915</v>
+        <v>4841157.623480543</v>
       </c>
       <c r="H64">
-        <v>883.6135513815822</v>
+        <v>3985432.833436736</v>
       </c>
       <c r="I64">
-        <v>-1480.49296623738</v>
+        <v>1115157.474948587</v>
       </c>
       <c r="J64">
-        <v>1221.608264090312</v>
+        <v>4842787.29277019</v>
       </c>
       <c r="K64">
-        <v>2558.496797860083</v>
+        <v>3986555.965660106</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,28 +2679,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>101.9151662665909</v>
+        <v>1116504.492663596</v>
       </c>
       <c r="G65">
-        <v>-60.4527134393152</v>
+        <v>4841174.136299873</v>
       </c>
       <c r="H65">
-        <v>982.7244465942463</v>
+        <v>3985551.519708034</v>
       </c>
       <c r="I65">
-        <v>-1435.228160547407</v>
+        <v>1115194.336934987</v>
       </c>
       <c r="J65">
-        <v>1183.562157068013</v>
+        <v>4842738.641163043</v>
       </c>
       <c r="K65">
-        <v>2754.238070091999</v>
+        <v>3986723.423572626</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,28 +2714,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>88.78830302207703</v>
+        <v>1116486.439840743</v>
       </c>
       <c r="G66">
-        <v>-40.67043659338124</v>
+        <v>4841190.649119201</v>
       </c>
       <c r="H66">
-        <v>1053.552304753414</v>
+        <v>3985636.336764431</v>
       </c>
       <c r="I66">
-        <v>-1388.848750660175</v>
+        <v>1115232.106613891</v>
       </c>
       <c r="J66">
-        <v>1145.516050045714</v>
+        <v>4842689.989555896</v>
       </c>
       <c r="K66">
-        <v>2932.272112373409</v>
+        <v>3986875.732836471</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,28 +2749,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>79.63368188041923</v>
+        <v>1116473.849875367</v>
       </c>
       <c r="G67">
-        <v>-20.88815974744728</v>
+        <v>4841207.161938529</v>
       </c>
       <c r="H67">
-        <v>1108.705919955906</v>
+        <v>3985702.383760807</v>
       </c>
       <c r="I67">
-        <v>-1341.327290472746</v>
+        <v>1115270.80633639</v>
       </c>
       <c r="J67">
-        <v>1107.469943023415</v>
+        <v>4842641.33794875</v>
       </c>
       <c r="K67">
-        <v>3092.59892470431</v>
+        <v>3987012.893451644</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,28 +2784,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>72.80406035911899</v>
+        <v>1116464.457384169</v>
       </c>
       <c r="G68">
-        <v>-1.10588290151333</v>
+        <v>4841223.674757858</v>
       </c>
       <c r="H68">
-        <v>1153.881008911097</v>
+        <v>3985756.481373912</v>
       </c>
       <c r="I68">
-        <v>-1292.635658047142</v>
+        <v>1115310.459003952</v>
       </c>
       <c r="J68">
-        <v>1069.423836001117</v>
+        <v>4842592.686341603</v>
       </c>
       <c r="K68">
-        <v>3235.218507084703</v>
+        <v>3987134.905418142</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,28 +2819,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>67.46425005783264</v>
+        <v>1116457.113767675</v>
       </c>
       <c r="G69">
-        <v>18.67639394442063</v>
+        <v>4841240.187577185</v>
       </c>
       <c r="H69">
-        <v>1192.141011634479</v>
+        <v>3985802.298103276</v>
       </c>
       <c r="I69">
-        <v>-1242.745038968539</v>
+        <v>1115351.088081974</v>
       </c>
       <c r="J69">
-        <v>1031.377728978818</v>
+        <v>4842544.034734456</v>
       </c>
       <c r="K69">
-        <v>3360.13085951459</v>
+        <v>3987241.768735967</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,28 +2854,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>63.14395471975505</v>
+        <v>1116451.172247225</v>
       </c>
       <c r="G70">
-        <v>38.4586707903546</v>
+        <v>4841256.700396514</v>
       </c>
       <c r="H70">
-        <v>1225.324595812052</v>
+        <v>3985842.03577153</v>
       </c>
       <c r="I70">
-        <v>-1191.625909293653</v>
+        <v>1115392.717613663</v>
       </c>
       <c r="J70">
-        <v>993.331621956519</v>
+        <v>4842495.383127309</v>
       </c>
       <c r="K70">
-        <v>3467.335981993968</v>
+        <v>3987333.483405117</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,28 +2889,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>59.55657018168235</v>
+        <v>1116446.23866817</v>
       </c>
       <c r="G71">
-        <v>58.24094763628855</v>
+        <v>4841273.213215843</v>
       </c>
       <c r="H71">
-        <v>1254.622417002466</v>
+        <v>3985877.120200409</v>
       </c>
       <c r="I71">
-        <v>-1139.24801807926</v>
+        <v>1115435.372234272</v>
       </c>
       <c r="J71">
-        <v>955.2855149342201</v>
+        <v>4842446.731520163</v>
       </c>
       <c r="K71">
-        <v>3556.83387452284</v>
+        <v>3987410.049425594</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,28 +2924,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>56.51653170281484</v>
+        <v>1116442.057831126</v>
       </c>
       <c r="G72">
-        <v>78.02322448222252</v>
+        <v>4841289.72603517</v>
       </c>
       <c r="H72">
-        <v>1280.849862535595</v>
+        <v>3985908.527824257</v>
       </c>
       <c r="I72">
-        <v>-1085.580369480488</v>
+        <v>1115479.077185672</v>
       </c>
       <c r="J72">
-        <v>917.2394079119214</v>
+        <v>4842398.079913015</v>
       </c>
       <c r="K72">
-        <v>3628.624537101204</v>
+        <v>3987471.466797396</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,28 +2959,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>53.89783514053802</v>
+        <v>1116438.456447896</v>
       </c>
       <c r="G73">
-        <v>97.80550132815647</v>
+        <v>4841306.238854499</v>
       </c>
       <c r="H73">
-        <v>1304.589866252031</v>
+        <v>3985936.956712076</v>
       </c>
       <c r="I73">
-        <v>-1030.591204408303</v>
+        <v>1115523.858331293</v>
       </c>
       <c r="J73">
-        <v>879.1933008896227</v>
+        <v>4842349.428305868</v>
       </c>
       <c r="K73">
-        <v>3682.70796972906</v>
+        <v>3987517.735520525</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,28 +2994,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>51.61157772907715</v>
+        <v>1116435.312254247</v>
       </c>
       <c r="G74">
-        <v>117.5877781740904</v>
+        <v>4841322.751673827</v>
       </c>
       <c r="H74">
-        <v>1326.27364896235</v>
+        <v>3985962.923255028</v>
       </c>
       <c r="I74">
-        <v>-974.2479817353206</v>
+        <v>1115569.742171426</v>
       </c>
       <c r="J74">
-        <v>841.1471938673238</v>
+        <v>4842300.776698722</v>
       </c>
       <c r="K74">
-        <v>3719.084172406408</v>
+        <v>3987548.85559498</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,28 +3029,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>49.59302851948146</v>
+        <v>1116432.536228428</v>
       </c>
       <c r="G75">
-        <v>137.3700550200244</v>
+        <v>4841339.264493155</v>
       </c>
       <c r="H75">
-        <v>1346.229187335093</v>
+        <v>3985986.820208395</v>
       </c>
       <c r="I75">
-        <v>-916.5173590388296</v>
+        <v>1115616.75585891</v>
       </c>
       <c r="J75">
-        <v>803.1010868450252</v>
+        <v>4842252.125091575</v>
       </c>
       <c r="K75">
-        <v>3737.75314513325</v>
+        <v>3987564.827020761</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,28 +3064,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>47.79380089113729</v>
+        <v>1116430.061826353</v>
       </c>
       <c r="G76">
-        <v>157.1523318659583</v>
+        <v>4841355.777312484</v>
       </c>
       <c r="H76">
-        <v>1364.711750424843</v>
+        <v>3986008.953259383</v>
       </c>
       <c r="I76">
-        <v>-857.3651728696365</v>
+        <v>1115664.927215197</v>
       </c>
       <c r="J76">
-        <v>765.0549798227263</v>
+        <v>4842203.473484429</v>
       </c>
       <c r="K76">
-        <v>3738.714887909583</v>
+        <v>3987565.649797868</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,28 +3099,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>46.17691071685118</v>
+        <v>1116427.838185309</v>
       </c>
       <c r="G77">
-        <v>176.9346087118923</v>
+        <v>4841372.290131812</v>
       </c>
       <c r="H77">
-        <v>1381.92391966736</v>
+        <v>3986029.56500125</v>
       </c>
       <c r="I77">
-        <v>-796.7564185350407</v>
+        <v>1115714.284746815</v>
       </c>
       <c r="J77">
-        <v>727.0088728004275</v>
+        <v>4842154.821877281</v>
       </c>
       <c r="K77">
-        <v>3721.96940073541</v>
+        <v>3987551.323926301</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,28 +3134,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>44.71354356136453</v>
+        <v>1116425.825678015</v>
       </c>
       <c r="G78">
-        <v>196.7168855578263</v>
+        <v>4841388.80295114</v>
       </c>
       <c r="H78">
-        <v>1398.029159833041</v>
+        <v>3986048.851184666</v>
       </c>
       <c r="I78">
-        <v>-734.6552293839865</v>
+        <v>1115764.857662242</v>
       </c>
       <c r="J78">
-        <v>688.9627657781289</v>
+        <v>4842106.170270135</v>
       </c>
       <c r="K78">
-        <v>3687.516683610729</v>
+        <v>3987521.84940606</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,28 +3169,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>43.38087452419469</v>
+        <v>1116423.992914346</v>
       </c>
       <c r="G79">
-        <v>216.4991624037602</v>
+        <v>4841405.315770469</v>
       </c>
       <c r="H79">
-        <v>1413.161283673656</v>
+        <v>3986066.972051717</v>
       </c>
       <c r="I79">
-        <v>-671.0248555821343</v>
+        <v>1115816.675889184</v>
       </c>
       <c r="J79">
-        <v>650.91665875583</v>
+        <v>4842057.518662988</v>
       </c>
       <c r="K79">
-        <v>3635.35673653554</v>
+        <v>3987477.226237146</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,28 +3204,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>42.1605586904863</v>
+        <v>1116422.314665311</v>
       </c>
       <c r="G80">
-        <v>236.2814392496942</v>
+        <v>4841421.828589796</v>
       </c>
       <c r="H80">
-        <v>1427.431216546287</v>
+        <v>3986084.060436608</v>
       </c>
       <c r="I80">
-        <v>-605.827642364282</v>
+        <v>1115869.770092294</v>
       </c>
       <c r="J80">
-        <v>612.8705517335311</v>
+        <v>4842008.867055841</v>
       </c>
       <c r="K80">
-        <v>3565.489559509844</v>
+        <v>3987417.454419557</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,28 +3239,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>41.03766153128964</v>
+        <v>1116420.770392081</v>
       </c>
       <c r="G81">
-        <v>256.0637160956281</v>
+        <v>4841438.341409125</v>
       </c>
       <c r="H81">
-        <v>1440.931935632902</v>
+        <v>3986100.227680429</v>
       </c>
       <c r="I81">
-        <v>-539.0250077512768</v>
+        <v>1115924.171691309</v>
       </c>
       <c r="J81">
-        <v>574.8244447112324</v>
+        <v>4841960.215448694</v>
       </c>
       <c r="K81">
-        <v>3477.91515253364</v>
+        <v>3987342.533953295</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,28 +3274,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>39.9998854620759</v>
+        <v>1116419.343182306</v>
       </c>
       <c r="G82">
-        <v>275.8459929415621</v>
+        <v>4841454.854228454</v>
       </c>
       <c r="H82">
-        <v>1453.742144702814</v>
+        <v>3986115.568031718</v>
       </c>
       <c r="I82">
-        <v>-470.5774197182226</v>
+        <v>1115979.912879651</v>
       </c>
       <c r="J82">
-        <v>536.7783376889336</v>
+        <v>4841911.563841548</v>
       </c>
       <c r="K82">
-        <v>3372.633515606929</v>
+        <v>3987252.464838359</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,28 +3309,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>39.03700035958111</v>
+        <v>1116418.018966927</v>
       </c>
       <c r="G83">
-        <v>295.628269787496</v>
+        <v>4841471.367047781</v>
       </c>
       <c r="H83">
-        <v>1465.929054016965</v>
+        <v>3986130.161975421</v>
       </c>
       <c r="I83">
-        <v>-400.4443728004809</v>
+        <v>1116037.026643475</v>
       </c>
       <c r="J83">
-        <v>498.7322306666348</v>
+        <v>4841862.9122344</v>
       </c>
       <c r="K83">
-        <v>3249.64464872971</v>
+        <v>3987147.247074749</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,28 +3344,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>38.14041742155015</v>
+        <v>1116416.785934126</v>
       </c>
       <c r="G84">
-        <v>315.41054663343</v>
+        <v>4841487.87986711</v>
       </c>
       <c r="H84">
-        <v>1477.550514767754</v>
+        <v>3986144.078788911</v>
       </c>
       <c r="I84">
-        <v>-328.58436412361</v>
+        <v>1116095.54678119</v>
       </c>
       <c r="J84">
-        <v>460.6861236443361</v>
+        <v>4841814.260627253</v>
       </c>
       <c r="K84">
-        <v>3108.948551901985</v>
+        <v>3987026.880662465</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,28 +3379,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>37.30286561908889</v>
+        <v>1116415.634084363</v>
       </c>
       <c r="G85">
-        <v>335.192823479364</v>
+        <v>4841504.392686439</v>
       </c>
       <c r="H85">
-        <v>1488.656679945534</v>
+        <v>3986157.378530888</v>
       </c>
       <c r="I85">
-        <v>-254.9548688430671</v>
+        <v>1116155.507923458</v>
       </c>
       <c r="J85">
-        <v>422.6400166220373</v>
+        <v>4841765.609020106</v>
       </c>
       <c r="K85">
-        <v>2950.54522512375</v>
+        <v>3986891.365601507</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,28 +3414,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>36.51814279109745</v>
+        <v>1116414.554888066</v>
       </c>
       <c r="G86">
-        <v>354.9751003252979</v>
+        <v>4841520.905505766</v>
       </c>
       <c r="H86">
-        <v>1499.291312379957</v>
+        <v>3986170.113607768</v>
       </c>
       <c r="I86">
-        <v>-179.5123149791339</v>
+        <v>1116216.945553692</v>
       </c>
       <c r="J86">
-        <v>384.5939095997386</v>
+        <v>4841716.95741296</v>
       </c>
       <c r="K86">
-        <v>2774.43466839501</v>
+        <v>3986740.701891875</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,28 +3449,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>35.78092185895169</v>
+        <v>1116413.541019129</v>
       </c>
       <c r="G87">
-        <v>374.7573771712319</v>
+        <v>4841537.418325095</v>
       </c>
       <c r="H87">
-        <v>1509.492826245038</v>
+        <v>3986182.330020905</v>
       </c>
       <c r="I87">
-        <v>-102.2120576321782</v>
+        <v>1116279.896029048</v>
       </c>
       <c r="J87">
-        <v>346.5478025774398</v>
+        <v>4841668.305805814</v>
       </c>
       <c r="K87">
-        <v>2580.616881715761</v>
+        <v>3986574.889533569</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,28 +3484,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>35.08659830032968</v>
+        <v>1116412.586145145</v>
       </c>
       <c r="G88">
-        <v>394.5396540171658</v>
+        <v>4841553.931144423</v>
       </c>
       <c r="H88">
-        <v>1519.295124657571</v>
+        <v>3986194.068369613</v>
       </c>
       <c r="I88">
-        <v>-23.00835256298679</v>
+        <v>1116344.396601947</v>
       </c>
       <c r="J88">
-        <v>308.5016955551409</v>
+        <v>4841619.654198666</v>
       </c>
       <c r="K88">
-        <v>2369.091865086004</v>
+        <v>3986393.928526589</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,28 +3519,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>34.43116889153048</v>
+        <v>1116411.684760649</v>
       </c>
       <c r="G89">
-        <v>414.3219308630999</v>
+        <v>4841570.443963751</v>
       </c>
       <c r="H89">
-        <v>1528.728279474425</v>
+        <v>3986205.364665235</v>
       </c>
       <c r="I89">
-        <v>58.14567087746112</v>
+        <v>1116410.485442113</v>
       </c>
       <c r="J89">
-        <v>270.4555885328422</v>
+        <v>4841571.00259152</v>
       </c>
       <c r="K89">
-        <v>2139.859618505741</v>
+        <v>3986197.818870936</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,28 +3554,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>33.81113441768421</v>
+        <v>1116410.832053318</v>
       </c>
       <c r="G90">
-        <v>434.1042077090337</v>
+        <v>4841586.95678308</v>
       </c>
       <c r="H90">
-        <v>1537.819087672203</v>
+        <v>3986216.250997417</v>
       </c>
       <c r="I90">
-        <v>141.2980374847974</v>
+        <v>1116478.201659169</v>
       </c>
       <c r="J90">
-        <v>232.4094815105434</v>
+        <v>4841522.350984373</v>
       </c>
       <c r="K90">
-        <v>1892.92014197497</v>
+        <v>3985986.560566608</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,28 +3589,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>33.22342094814843</v>
+        <v>1116410.023795705</v>
       </c>
       <c r="G91">
-        <v>453.8864845549678</v>
+        <v>4841603.469602408</v>
       </c>
       <c r="H91">
-        <v>1546.591530257679</v>
+        <v>3986226.756083648</v>
       </c>
       <c r="I91">
-        <v>226.4979546210655</v>
+        <v>1116547.585325771</v>
       </c>
       <c r="J91">
-        <v>194.3633744882447</v>
+        <v>4841473.699377227</v>
       </c>
       <c r="K91">
-        <v>1628.273435493692</v>
+        <v>3985760.153613607</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,28 +3624,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>32.66531563203754</v>
+        <v>1116409.25625694</v>
       </c>
       <c r="G92">
-        <v>473.6687614009017</v>
+        <v>4841619.982421736</v>
       </c>
       <c r="H92">
-        <v>1555.067153507433</v>
+        <v>3986236.905725806</v>
       </c>
       <c r="I92">
-        <v>313.7958413343268</v>
+        <v>1116618.677501332</v>
       </c>
       <c r="J92">
-        <v>156.3172674659459</v>
+        <v>4841425.047770079</v>
       </c>
       <c r="K92">
-        <v>1345.919499061905</v>
+        <v>3985518.598011931</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,28 +3659,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>32.13441395248152</v>
+        <v>1116408.526130192</v>
       </c>
       <c r="G93">
-        <v>493.4510382468357</v>
+        <v>4841636.495241065</v>
       </c>
       <c r="H93">
-        <v>1563.265387796522</v>
+        <v>3986246.723191958</v>
       </c>
       <c r="I93">
-        <v>403.2433581953198</v>
+        <v>1116691.520256312</v>
       </c>
       <c r="J93">
-        <v>118.271160443647</v>
+        <v>4841376.396162933</v>
       </c>
       <c r="K93">
-        <v>1045.858332679612</v>
+        <v>3985261.893761583</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,28 +3694,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>31.62857609936065</v>
+        <v>1116407.83047267</v>
       </c>
       <c r="G94">
-        <v>513.2333150927697</v>
+        <v>4841653.008060393</v>
       </c>
       <c r="H94">
-        <v>1571.203815888897</v>
+        <v>3986256.229537635</v>
       </c>
       <c r="I94">
-        <v>494.8934378688068</v>
+        <v>1116766.15669712</v>
       </c>
       <c r="J94">
-        <v>80.22505342134838</v>
+        <v>4841327.744555786</v>
       </c>
       <c r="K94">
-        <v>728.089936346811</v>
+        <v>3984990.040862559</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,28 +3729,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>31.1458906548067</v>
+        <v>1116407.166655682</v>
       </c>
       <c r="G95">
-        <v>533.0155919387036</v>
+        <v>4841669.520879721</v>
       </c>
       <c r="H95">
-        <v>1578.898400008027</v>
+        <v>3986265.443877757</v>
       </c>
       <c r="I95">
-        <v>588.8003164377282</v>
+        <v>1116842.630991618</v>
       </c>
       <c r="J95">
-        <v>42.17894639904953</v>
+        <v>4841279.092948639</v>
       </c>
       <c r="K95">
-        <v>392.6143100635019</v>
+        <v>3984703.039314862</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,28 +3764,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>30.68464418604847</v>
+        <v>1116406.532322815</v>
       </c>
       <c r="G96">
-        <v>552.7978687846376</v>
+        <v>4841686.03369905</v>
       </c>
       <c r="H96">
-        <v>1586.36367506125</v>
+        <v>3986274.383618019</v>
       </c>
       <c r="I96">
-        <v>685.0195654986643</v>
+        <v>1116920.988395264</v>
       </c>
       <c r="J96">
-        <v>4.132839376750685</v>
+        <v>4841230.441341491</v>
       </c>
       <c r="K96">
-        <v>39.43145382968559</v>
+        <v>3984400.889118492</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,28 +3799,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>30.24329564281606</v>
+        <v>1116405.925354728</v>
       </c>
       <c r="G97">
-        <v>572.5801456305715</v>
+        <v>4841702.546518378</v>
       </c>
       <c r="H97">
-        <v>1593.612913897033</v>
+        <v>3986283.064652786</v>
       </c>
       <c r="I97">
-        <v>783.6081250476391</v>
+        <v>1117001.275277886</v>
       </c>
       <c r="J97">
-        <v>-33.91326764554798</v>
+        <v>4841181.789734345</v>
       </c>
       <c r="K97">
-        <v>-331.4586323546371</v>
+        <v>3984083.590273447</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,28 +3834,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>29.82045468737408</v>
+        <v>1116405.343839349</v>
       </c>
       <c r="G98">
-        <v>592.3624224765053</v>
+        <v>4841719.059337706</v>
       </c>
       <c r="H98">
-        <v>1600.658269316265</v>
+        <v>3986291.501535157</v>
       </c>
       <c r="I98">
-        <v>884.6243371756963</v>
+        <v>1117083.539151131</v>
       </c>
       <c r="J98">
-        <v>-71.95937466784683</v>
+        <v>4841133.138127198</v>
       </c>
       <c r="K98">
-        <v>-720.0559484894685</v>
+        <v>3983751.142779729</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,28 +3869,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>29.41486326283583</v>
+        <v>1116404.786046523</v>
       </c>
       <c r="G99">
-        <v>612.1446993224395</v>
+        <v>4841735.572157034</v>
       </c>
       <c r="H99">
-        <v>1607.510896654376</v>
+        <v>3986299.707623757</v>
       </c>
       <c r="I99">
-        <v>988.1279805941965</v>
+        <v>1117167.828696572</v>
       </c>
       <c r="J99">
-        <v>-110.0054816901457</v>
+        <v>4841084.486520051</v>
       </c>
       <c r="K99">
-        <v>-1126.360494574808</v>
+        <v>3983403.546637336</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,28 +3904,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>29.0253798430995</v>
+        <v>1116404.250406359</v>
       </c>
       <c r="G100">
-        <v>631.9269761683734</v>
+        <v>4841752.084976362</v>
       </c>
       <c r="H100">
-        <v>1614.181060039298</v>
+        <v>3986307.69520998</v>
       </c>
       <c r="I100">
-        <v>1094.180306010271</v>
+        <v>1117254.193794526</v>
       </c>
       <c r="J100">
-        <v>-148.0515887124445</v>
+        <v>4841035.834912905</v>
       </c>
       <c r="K100">
-        <v>-1550.372270610655</v>
+        <v>3983040.80184627</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,28 +3939,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>28.65096591529019</v>
+        <v>1116403.735490634</v>
       </c>
       <c r="G101">
-        <v>651.7092530143073</v>
+        <v>4841768.597795691</v>
       </c>
       <c r="H101">
-        <v>1620.678224866406</v>
+        <v>3986315.475628729</v>
       </c>
       <c r="I101">
-        <v>1202.844072373366</v>
+        <v>1117342.685553562</v>
       </c>
       <c r="J101">
-        <v>-186.097695734743</v>
+        <v>4840987.183305758</v>
       </c>
       <c r="K101">
-        <v>-1992.091276597006</v>
+        <v>3982662.908406529</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,28 +3974,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>28.29067433018717</v>
+        <v>1116403.239996772</v>
       </c>
       <c r="G102">
-        <v>671.4915298602413</v>
+        <v>4841785.110615019</v>
       </c>
       <c r="H102">
-        <v>1627.011138581692</v>
+        <v>3986323.059355156</v>
       </c>
       <c r="I102">
-        <v>1314.183584014321</v>
+        <v>1117433.356340753</v>
       </c>
       <c r="J102">
-        <v>-224.1438027570418</v>
+        <v>4840938.531698612</v>
       </c>
       <c r="K102">
-        <v>-2451.517512533867</v>
+        <v>3982269.866318115</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,28 +4009,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>27.94363922309527</v>
+        <v>1116402.762733987</v>
       </c>
       <c r="G103">
-        <v>691.2738067061753</v>
+        <v>4841801.623434347</v>
       </c>
       <c r="H103">
-        <v>1633.187901503363</v>
+        <v>3986330.456089475</v>
       </c>
       <c r="I103">
-        <v>1428.264728698961</v>
+        <v>1117526.259812664</v>
       </c>
       <c r="J103">
-        <v>-262.1899097793407</v>
+        <v>4840889.880091464</v>
       </c>
       <c r="K103">
-        <v>-2928.650978421236</v>
+        <v>3981861.675581027</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,28 +4044,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>27.60906726098732</v>
+        <v>1116402.302611241</v>
       </c>
       <c r="G104">
-        <v>711.0560835521092</v>
+        <v>4841818.136253676</v>
       </c>
       <c r="H104">
-        <v>1639.216029120527</v>
+        <v>3986337.674831553</v>
       </c>
       <c r="I104">
-        <v>1545.155016618732</v>
+        <v>1117621.4509471</v>
       </c>
       <c r="J104">
-        <v>-300.2360168016396</v>
+        <v>4840841.228484318</v>
       </c>
       <c r="K104">
-        <v>-3423.491674259113</v>
+        <v>3981438.336195265</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,28 +4079,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>27.28623001452067</v>
+        <v>1116401.858626755</v>
       </c>
       <c r="G105">
-        <v>730.8383603980432</v>
+        <v>4841834.649073004</v>
       </c>
       <c r="H105">
-        <v>1645.102507070894</v>
+        <v>3986344.723946765</v>
       </c>
       <c r="I105">
-        <v>1664.923620341435</v>
+        <v>1117718.986075648</v>
       </c>
       <c r="J105">
-        <v>-338.2821238239384</v>
+        <v>4840792.576877171</v>
       </c>
       <c r="K105">
-        <v>-3936.039600047497</v>
+        <v>3980999.848160829</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,28 +4114,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>26.97445728800513</v>
+        <v>1116401.429858839</v>
       </c>
       <c r="G106">
-        <v>750.6206372439771</v>
+        <v>4841851.161892332</v>
       </c>
       <c r="H106">
-        <v>1650.853839806219</v>
+        <v>3986351.611224251</v>
       </c>
       <c r="I106">
-        <v>1787.641415745712</v>
+        <v>1117818.922917005</v>
       </c>
       <c r="J106">
-        <v>-376.3282308462369</v>
+        <v>4840743.925270024</v>
       </c>
       <c r="K106">
-        <v>-4466.294755786384</v>
+        <v>3980546.211477719</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,1883 +4149,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>26.67313126834052</v>
+        <v>1116401.015457839</v>
       </c>
       <c r="G107">
-        <v>770.402914089911</v>
+        <v>4841867.674711661</v>
       </c>
       <c r="H107">
-        <v>1656.476093795699</v>
+        <v>3986358.343928672</v>
       </c>
       <c r="I107">
-        <v>1913.38102396352</v>
+        <v>1117921.320611141</v>
       </c>
       <c r="J107">
-        <v>-414.3743378685357</v>
+        <v>4840695.273662876</v>
       </c>
       <c r="K107">
-        <v>-5014.257141475784</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>31</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G108">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H108">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I108">
-        <v>-1691.873567746502</v>
-      </c>
-      <c r="J108">
-        <v>2239.587667012036</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>31</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G109">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H109">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I109">
-        <v>-1658.471478504303</v>
-      </c>
-      <c r="J109">
-        <v>2185.10791851588</v>
-      </c>
-      <c r="K109">
-        <v>419.3258074833745</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>31</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G110">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H110">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I110">
-        <v>-1624.246893543873</v>
-      </c>
-      <c r="J110">
-        <v>2130.628170019724</v>
-      </c>
-      <c r="K110">
-        <v>817.7421080851303</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>31</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G111">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H111">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I111">
-        <v>-1589.179559664833</v>
-      </c>
-      <c r="J111">
-        <v>2076.148421523568</v>
-      </c>
-      <c r="K111">
-        <v>1195.24890180527</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>31</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G112">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H112">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I112">
-        <v>-1553.248724950377</v>
-      </c>
-      <c r="J112">
-        <v>2021.668673027412</v>
-      </c>
-      <c r="K112">
-        <v>1551.846188643792</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>31</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G113">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H113">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I113">
-        <v>-1516.433126486839</v>
-      </c>
-      <c r="J113">
-        <v>1967.188924531255</v>
-      </c>
-      <c r="K113">
-        <v>1887.533968600699</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>31</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G114">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H114">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I114">
-        <v>-1478.710977780867</v>
-      </c>
-      <c r="J114">
-        <v>1912.709176035099</v>
-      </c>
-      <c r="K114">
-        <v>2202.312241675987</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>31</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G115">
-        <v>-72.08200397090376</v>
-      </c>
-      <c r="H115">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I115">
-        <v>-1440.05995586675</v>
-      </c>
-      <c r="J115">
-        <v>1858.229427538942</v>
-      </c>
-      <c r="K115">
-        <v>2496.181007869659</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>31</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>239.7830815212876</v>
-      </c>
-      <c r="G116">
-        <v>-60.17923614038097</v>
-      </c>
-      <c r="H116">
-        <v>1120.411817478574</v>
-      </c>
-      <c r="I116">
-        <v>-1400.457188096287</v>
-      </c>
-      <c r="J116">
-        <v>1803.749679042786</v>
-      </c>
-      <c r="K116">
-        <v>2769.140267181713</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>31</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>186.0996435056547</v>
-      </c>
-      <c r="G117">
-        <v>-48.27646830985817</v>
-      </c>
-      <c r="H117">
-        <v>1380.339819819947</v>
-      </c>
-      <c r="I117">
-        <v>-1359.879238603353</v>
-      </c>
-      <c r="J117">
-        <v>1749.26993054663</v>
-      </c>
-      <c r="K117">
-        <v>3021.19001961215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>31</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>154.5633167234313</v>
-      </c>
-      <c r="G118">
-        <v>-36.3737004793354</v>
-      </c>
-      <c r="H118">
-        <v>1535.166231237174</v>
-      </c>
-      <c r="I118">
-        <v>-1318.302094435186</v>
-      </c>
-      <c r="J118">
-        <v>1694.790182050474</v>
-      </c>
-      <c r="K118">
-        <v>3252.330265160971</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>31</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>134.6552736365009</v>
-      </c>
-      <c r="G119">
-        <v>-24.47093264881261</v>
-      </c>
-      <c r="H119">
-        <v>1645.810203159962</v>
-      </c>
-      <c r="I119">
-        <v>-1275.701151342148</v>
-      </c>
-      <c r="J119">
-        <v>1640.310433554317</v>
-      </c>
-      <c r="K119">
-        <v>3462.561003828175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>31</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>120.7714851991669</v>
-      </c>
-      <c r="G120">
-        <v>-12.56816481828982</v>
-      </c>
-      <c r="H120">
-        <v>1731.968604818686</v>
-      </c>
-      <c r="I120">
-        <v>-1232.051199217594</v>
-      </c>
-      <c r="J120">
-        <v>1585.830685058161</v>
-      </c>
-      <c r="K120">
-        <v>3651.882235613761</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>31</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>110.4137632528903</v>
-      </c>
-      <c r="G121">
-        <v>-0.6653969877670372</v>
-      </c>
-      <c r="H121">
-        <v>1802.539018831985</v>
-      </c>
-      <c r="I121">
-        <v>-1187.326407179192</v>
-      </c>
-      <c r="J121">
-        <v>1531.350936562005</v>
-      </c>
-      <c r="K121">
-        <v>3820.293960517729</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>31</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>102.3154711038903</v>
-      </c>
-      <c r="G122">
-        <v>11.23737084275575</v>
-      </c>
-      <c r="H122">
-        <v>1862.307008110702</v>
-      </c>
-      <c r="I122">
-        <v>-1141.500308282898</v>
-      </c>
-      <c r="J122">
-        <v>1476.871188065849</v>
-      </c>
-      <c r="K122">
-        <v>3967.796178540082</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>31</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>95.7633630993631</v>
-      </c>
-      <c r="G123">
-        <v>23.14013867327854</v>
-      </c>
-      <c r="H123">
-        <v>1914.1448534369</v>
-      </c>
-      <c r="I123">
-        <v>-1094.545783860521</v>
-      </c>
-      <c r="J123">
-        <v>1422.391439569692</v>
-      </c>
-      <c r="K123">
-        <v>4094.388889680817</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>31</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>90.32277880873397</v>
-      </c>
-      <c r="G124">
-        <v>35.04290650380132</v>
-      </c>
-      <c r="H124">
-        <v>1959.912541313417</v>
-      </c>
-      <c r="I124">
-        <v>-1046.435047471614</v>
-      </c>
-      <c r="J124">
-        <v>1367.911691073536</v>
-      </c>
-      <c r="K124">
-        <v>4200.072093939935</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>31</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>85.71229297553124</v>
-      </c>
-      <c r="G125">
-        <v>46.94567433432412</v>
-      </c>
-      <c r="H125">
-        <v>2000.883831743415</v>
-      </c>
-      <c r="I125">
-        <v>-997.1396284601955</v>
-      </c>
-      <c r="J125">
-        <v>1313.43194257738</v>
-      </c>
-      <c r="K125">
-        <v>4284.845791317436</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>31</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>81.74080923091377</v>
-      </c>
-      <c r="G126">
-        <v>58.8484421648469</v>
-      </c>
-      <c r="H126">
-        <v>2037.969356746096</v>
-      </c>
-      <c r="I126">
-        <v>-946.6303551065746</v>
-      </c>
-      <c r="J126">
-        <v>1258.952194081224</v>
-      </c>
-      <c r="K126">
-        <v>4348.70998181332</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>31</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>78.27349870840953</v>
-      </c>
-      <c r="G127">
-        <v>70.75120999536968</v>
-      </c>
-      <c r="H127">
-        <v>2071.8427493311</v>
-      </c>
-      <c r="I127">
-        <v>-894.8773373643005</v>
-      </c>
-      <c r="J127">
-        <v>1204.472445585067</v>
-      </c>
-      <c r="K127">
-        <v>4391.664665427587</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>31</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>75.212191228535</v>
-      </c>
-      <c r="G128">
-        <v>82.65397782589248</v>
-      </c>
-      <c r="H128">
-        <v>2103.016359331504</v>
-      </c>
-      <c r="I128">
-        <v>-841.8499491720258</v>
-      </c>
-      <c r="J128">
-        <v>1149.992697088911</v>
-      </c>
-      <c r="K128">
-        <v>4413.709842160237</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>31</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>72.48350422379751</v>
-      </c>
-      <c r="G129">
-        <v>94.55674565641526</v>
-      </c>
-      <c r="H129">
-        <v>2131.888956141756</v>
-      </c>
-      <c r="I129">
-        <v>-787.516810329819</v>
-      </c>
-      <c r="J129">
-        <v>1095.512948592755</v>
-      </c>
-      <c r="K129">
-        <v>4414.845512011269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>31</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>70.03134801123278</v>
-      </c>
-      <c r="G130">
-        <v>106.4595134869381</v>
-      </c>
-      <c r="H130">
-        <v>2158.777003019013</v>
-      </c>
-      <c r="I130">
-        <v>-731.8457679291943</v>
-      </c>
-      <c r="J130">
-        <v>1041.033200096598</v>
-      </c>
-      <c r="K130">
-        <v>4395.071674980685</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>31</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>67.8120229645121</v>
-      </c>
-      <c r="G131">
-        <v>118.3622813174608</v>
-      </c>
-      <c r="H131">
-        <v>2183.935856992782</v>
-      </c>
-      <c r="I131">
-        <v>-674.8038773258736</v>
-      </c>
-      <c r="J131">
-        <v>986.5534516004423</v>
-      </c>
-      <c r="K131">
-        <v>4354.388331068484</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>31</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>65.79091311378798</v>
-      </c>
-      <c r="G132">
-        <v>130.2650491479836</v>
-      </c>
-      <c r="H132">
-        <v>2207.574554094008</v>
-      </c>
-      <c r="I132">
-        <v>-616.3573826440235</v>
-      </c>
-      <c r="J132">
-        <v>932.0737031042859</v>
-      </c>
-      <c r="K132">
-        <v>4292.795480274666</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>31</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>63.9401967815916</v>
-      </c>
-      <c r="G133">
-        <v>142.1678169785064</v>
-      </c>
-      <c r="H133">
-        <v>2229.866376734632</v>
-      </c>
-      <c r="I133">
-        <v>-556.471696800422</v>
-      </c>
-      <c r="J133">
-        <v>877.5939546081295</v>
-      </c>
-      <c r="K133">
-        <v>4210.293122599231</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>31</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>62.23722444074532</v>
-      </c>
-      <c r="G134">
-        <v>154.0705848090292</v>
-      </c>
-      <c r="H134">
-        <v>2250.956569525723</v>
-      </c>
-      <c r="I134">
-        <v>-495.1113810367429</v>
-      </c>
-      <c r="J134">
-        <v>823.1142061119733</v>
-      </c>
-      <c r="K134">
-        <v>4106.881258042178</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>31</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>60.66334572229925</v>
-      </c>
-      <c r="G135">
-        <v>165.973352639552</v>
-      </c>
-      <c r="H135">
-        <v>2270.968079819755</v>
-      </c>
-      <c r="I135">
-        <v>-432.2401239478379</v>
-      </c>
-      <c r="J135">
-        <v>768.634457615817</v>
-      </c>
-      <c r="K135">
-        <v>3982.559886603509</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>31</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>59.20304574421871</v>
-      </c>
-      <c r="G136">
-        <v>177.8761204700747</v>
-      </c>
-      <c r="H136">
-        <v>2290.005900347241</v>
-      </c>
-      <c r="I136">
-        <v>-367.8207199936147</v>
-      </c>
-      <c r="J136">
-        <v>714.1547091196607</v>
-      </c>
-      <c r="K136">
-        <v>3837.329008283222</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>31</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>57.84329883219183</v>
-      </c>
-      <c r="G137">
-        <v>189.7788883005975</v>
-      </c>
-      <c r="H137">
-        <v>2308.160403538943</v>
-      </c>
-      <c r="I137">
-        <v>-301.8150474817839</v>
-      </c>
-      <c r="J137">
-        <v>659.6749606235045</v>
-      </c>
-      <c r="K137">
-        <v>3671.188623081319</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>31</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>56.57307783115386</v>
-      </c>
-      <c r="G138">
-        <v>201.6816561311203</v>
-      </c>
-      <c r="H138">
-        <v>2325.509936053941</v>
-      </c>
-      <c r="I138">
-        <v>-234.1840460084546</v>
-      </c>
-      <c r="J138">
-        <v>605.1952121273481</v>
-      </c>
-      <c r="K138">
-        <v>3484.138730997798</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>31</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>55.38297661809518</v>
-      </c>
-      <c r="G139">
-        <v>213.5844239616431</v>
-      </c>
-      <c r="H139">
-        <v>2342.122862140725</v>
-      </c>
-      <c r="I139">
-        <v>-164.8876933432246</v>
-      </c>
-      <c r="J139">
-        <v>550.7154636311921</v>
-      </c>
-      <c r="K139">
-        <v>3276.179332032661</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>31</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>54.26491620957538</v>
-      </c>
-      <c r="G140">
-        <v>225.4871917921659</v>
-      </c>
-      <c r="H140">
-        <v>2358.059190627764</v>
-      </c>
-      <c r="I140">
-        <v>-93.88498174508867</v>
-      </c>
-      <c r="J140">
-        <v>496.2357151350357</v>
-      </c>
-      <c r="K140">
-        <v>3047.310426185906</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>31</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>53.21191344236099</v>
-      </c>
-      <c r="G141">
-        <v>237.3899596226887</v>
-      </c>
-      <c r="H141">
-        <v>2373.371883380632</v>
-      </c>
-      <c r="I141">
-        <v>-21.13389369514589</v>
-      </c>
-      <c r="J141">
-        <v>441.7559666388793</v>
-      </c>
-      <c r="K141">
-        <v>2797.532013457534</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>31</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>52.217897075483</v>
-      </c>
-      <c r="G142">
-        <v>249.2927274532115</v>
-      </c>
-      <c r="H142">
-        <v>2388.107917249592</v>
-      </c>
-      <c r="I142">
-        <v>53.40862296825318</v>
-      </c>
-      <c r="J142">
-        <v>387.2762181427232</v>
-      </c>
-      <c r="K142">
-        <v>2526.844093847546</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>31</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>51.27756024171028</v>
-      </c>
-      <c r="G143">
-        <v>261.1954952837343</v>
-      </c>
-      <c r="H143">
-        <v>2402.309153219907</v>
-      </c>
-      <c r="I143">
-        <v>129.7866805266305</v>
-      </c>
-      <c r="J143">
-        <v>332.7964696465668</v>
-      </c>
-      <c r="K143">
-        <v>2235.24666735594</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>31</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>50.38624105476152</v>
-      </c>
-      <c r="G144">
-        <v>273.0982631142571</v>
-      </c>
-      <c r="H144">
-        <v>2416.013053300303</v>
-      </c>
-      <c r="I144">
-        <v>208.045477485859</v>
-      </c>
-      <c r="J144">
-        <v>278.3167211504107</v>
-      </c>
-      <c r="K144">
-        <v>1922.739733982718</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>31</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>49.53982523757655</v>
-      </c>
-      <c r="G145">
-        <v>285.0010309447799</v>
-      </c>
-      <c r="H145">
-        <v>2429.253276077709</v>
-      </c>
-      <c r="I145">
-        <v>288.2313253234347</v>
-      </c>
-      <c r="J145">
-        <v>223.8369726542543</v>
-      </c>
-      <c r="K145">
-        <v>1589.323293727877</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>31</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>48.73466612875882</v>
-      </c>
-      <c r="G146">
-        <v>296.9037987753026</v>
-      </c>
-      <c r="H146">
-        <v>2442.060174776522</v>
-      </c>
-      <c r="I146">
-        <v>370.391675894384</v>
-      </c>
-      <c r="J146">
-        <v>169.3572241580979</v>
-      </c>
-      <c r="K146">
-        <v>1234.99734659142</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>31</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>47.96751851798903</v>
-      </c>
-      <c r="G147">
-        <v>308.8065666058254</v>
-      </c>
-      <c r="H147">
-        <v>2454.461216369366</v>
-      </c>
-      <c r="I147">
-        <v>454.5751495120052</v>
-      </c>
-      <c r="J147">
-        <v>114.8774756619418</v>
-      </c>
-      <c r="K147">
-        <v>859.7618925733462</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>31</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>47.23548357189251</v>
-      </c>
-      <c r="G148">
-        <v>320.7093344363482</v>
-      </c>
-      <c r="H148">
-        <v>2466.481336296207</v>
-      </c>
-      <c r="I148">
-        <v>540.8315637200865</v>
-      </c>
-      <c r="J148">
-        <v>60.39772716578543</v>
-      </c>
-      <c r="K148">
-        <v>463.6169316736546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>31</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>46.53596271891409</v>
-      </c>
-      <c r="G149">
-        <v>332.612102266871</v>
-      </c>
-      <c r="H149">
-        <v>2478.143240310424</v>
-      </c>
-      <c r="I149">
-        <v>629.211962773595</v>
-      </c>
-      <c r="J149">
-        <v>5.917978669629059</v>
-      </c>
-      <c r="K149">
-        <v>46.56246389234617</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>31</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>45.86661882072906</v>
-      </c>
-      <c r="G150">
-        <v>344.5148700973938</v>
-      </c>
-      <c r="H150">
-        <v>2489.467662635964</v>
-      </c>
-      <c r="I150">
-        <v>719.7686478453194</v>
-      </c>
-      <c r="J150">
-        <v>-48.56176982652705</v>
-      </c>
-      <c r="K150">
-        <v>-391.4015107705781</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>31</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>45.2253433078318</v>
-      </c>
-      <c r="G151">
-        <v>356.4176379279165</v>
-      </c>
-      <c r="H151">
-        <v>2500.47358781077</v>
-      </c>
-      <c r="I151">
-        <v>812.5552079763127</v>
-      </c>
-      <c r="J151">
-        <v>-103.0415183226834</v>
-      </c>
-      <c r="K151">
-        <v>-850.2749923151206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>31</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>44.6102282262626</v>
-      </c>
-      <c r="G152">
-        <v>368.3204057584394</v>
-      </c>
-      <c r="H152">
-        <v>2511.178442178827</v>
-      </c>
-      <c r="I152">
-        <v>907.6265517884622</v>
-      </c>
-      <c r="J152">
-        <v>-157.5212668188398</v>
-      </c>
-      <c r="K152">
-        <v>-1330.057980741281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>31</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>44.01954235125005</v>
-      </c>
-      <c r="G153">
-        <v>380.2231735889621</v>
-      </c>
-      <c r="H153">
-        <v>2521.598259881393</v>
-      </c>
-      <c r="I153">
-        <v>1005.038939977953</v>
-      </c>
-      <c r="J153">
-        <v>-212.0010153149962</v>
-      </c>
-      <c r="K153">
-        <v>-1830.750476049058</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>31</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>43.45171068664504</v>
-      </c>
-      <c r="G154">
-        <v>392.1259414194849</v>
-      </c>
-      <c r="H154">
-        <v>2531.74782731703</v>
-      </c>
-      <c r="I154">
-        <v>1104.850018608856</v>
-      </c>
-      <c r="J154">
-        <v>-266.480763811152</v>
-      </c>
-      <c r="K154">
-        <v>-2352.352478238448</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>31</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>42.90529679731873</v>
-      </c>
-      <c r="G155">
-        <v>404.0287092500078</v>
-      </c>
-      <c r="H155">
-        <v>2541.64080933731</v>
-      </c>
-      <c r="I155">
-        <v>1207.118853226537</v>
-      </c>
-      <c r="J155">
-        <v>-320.9605123073084</v>
-      </c>
-      <c r="K155">
-        <v>-2894.863987309459</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>31</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>42.37898752327715</v>
-      </c>
-      <c r="G156">
-        <v>415.9314770805305</v>
-      </c>
-      <c r="H156">
-        <v>2551.289859881</v>
-      </c>
-      <c r="I156">
-        <v>1311.905963811076</v>
-      </c>
-      <c r="J156">
-        <v>-375.4402608034648</v>
-      </c>
-      <c r="K156">
-        <v>-3458.285003262088</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>31</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>41.87157970518264</v>
-      </c>
-      <c r="G157">
-        <v>427.8342449110532</v>
-      </c>
-      <c r="H157">
-        <v>2560.706719294164</v>
-      </c>
-      <c r="I157">
-        <v>1419.273360591384</v>
-      </c>
-      <c r="J157">
-        <v>-429.9200092996211</v>
-      </c>
-      <c r="K157">
-        <v>-4042.615526096333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>31</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>41.38196861584565</v>
-      </c>
-      <c r="G158">
-        <v>439.7370127415761</v>
-      </c>
-      <c r="H158">
-        <v>2569.902300213763</v>
-      </c>
-      <c r="I158">
-        <v>1529.284580741215</v>
-      </c>
-      <c r="J158">
-        <v>-484.3997577957775</v>
-      </c>
-      <c r="K158">
-        <v>-4647.855555812194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>31</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>40.90913784453438</v>
-      </c>
-      <c r="G159">
-        <v>451.6397805720989</v>
-      </c>
-      <c r="H159">
-        <v>2578.886763590531</v>
-      </c>
-      <c r="I159">
-        <v>1642.004725978767</v>
-      </c>
-      <c r="J159">
-        <v>-538.8795062919334</v>
-      </c>
-      <c r="K159">
-        <v>-5274.005092409669</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>31</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>40.45215042332365</v>
-      </c>
-      <c r="G160">
-        <v>463.5425484026216</v>
-      </c>
-      <c r="H160">
-        <v>2587.669586179305</v>
-      </c>
-      <c r="I160">
-        <v>1757.500501092162</v>
-      </c>
-      <c r="J160">
-        <v>-593.3592547880897</v>
-      </c>
-      <c r="K160">
-        <v>-5921.064135888766</v>
+        <v>3980077.426145936</v>
       </c>
     </row>
   </sheetData>
